--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Buy 17th April" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="85">
   <si>
     <t>SBI</t>
   </si>
@@ -610,7 +610,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3985,7 +3985,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4599,7 +4599,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+      <selection activeCell="J8" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5236,15 +5236,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5267,29 +5272,800 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>959.9</v>
+        <v>818.55</v>
       </c>
       <c r="C2" s="1">
-        <v>43216.136967592596</v>
+        <v>43217.13658564815</v>
       </c>
       <c r="D2" s="4">
         <v>0.1388888888888889</v>
       </c>
       <c r="E2">
-        <v>964.2</v>
+        <v>819.5</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <f t="shared" ref="F2:F32" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2" si="1">SUM(E2-B2)</f>
-        <v>4.3000000000000682</v>
+        <f t="shared" ref="G2:G32" si="1">SUM(E2-B2)</f>
+        <v>0.95000000000004547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43217.131956018522</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E3">
+        <v>294.45</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.34999999999996589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>1134.3499999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43217.129872685182</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E4">
+        <v>1138.5</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.1500000000000909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43217.077673611115</v>
+      </c>
+      <c r="D5" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E5">
+        <v>40.6</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F37,"PASS")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>306.95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43217.07640046296</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E6">
+        <v>311.25</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F37,"FAIL")</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43217.071539351855</v>
+      </c>
+      <c r="D7" s="4">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="E7">
+        <v>144.94999999999999</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>244.35</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43217.05568287037</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E8">
+        <v>245.55</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G2:G37)</f>
+        <v>84.299999999999955</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>268.05</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43217.052129629628</v>
+      </c>
+      <c r="D9" s="4">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="E9">
+        <v>268.75</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10">
+        <v>887.6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43217.531180555554</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E10">
+        <v>886.05</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-1.5500000000000682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>336.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43217.531064814815</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E11">
+        <v>337.5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.4499999999999886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>115.75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43217.527905092589</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E12">
+        <v>117.6</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.8499999999999943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>867.2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43217.512974537036</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E13">
+        <v>888.45</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14">
+        <v>606.20000000000005</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43217.510347222225</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E14">
+        <v>607.4</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.1999999999999318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>267.39999999999998</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43217.496111111112</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>265.7</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-1.6999999999999886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>236.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43217.427106481482</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E16">
+        <v>237.9</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>1079.4000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43217.402546296296</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E17">
+        <v>1050</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-29.400000000000091</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>444.5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43217.396192129629</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E18">
+        <v>446.6</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1376.95</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43217.396192129629</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E19">
+        <v>1364.95</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20">
+        <v>864.65</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43217.395949074074</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E20">
+        <v>863.7</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>-0.94999999999993179</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>291.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43217.395949074074</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E21">
+        <v>290.85000000000002</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>-0.19999999999998863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>1241.55</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43217.395740740743</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E22">
+        <v>1241.45</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-9.9999999999909051E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23">
+        <v>635.70000000000005</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43217.395740740743</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E23">
+        <v>637.54999999999995</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>1.8499999999999091</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24">
+        <v>997.5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43217.395624999997</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E24">
+        <v>1005.8</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>520.85</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43217.395624999997</v>
+      </c>
+      <c r="D25" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E25">
+        <v>526.20000000000005</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>5.3500000000000227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
+        <v>626</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43217.389421296299</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E26">
+        <v>640.25</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>1147</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43217.389421296299</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>1150.5</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28">
+        <v>753.4</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43217.389421296299</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E28">
+        <v>762.5</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>9.1000000000000227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>438</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43217.389351851853</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>438</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>510.05</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43217.388611111113</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E30">
+        <v>520.70000000000005</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>10.650000000000034</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31">
+        <v>626.45000000000005</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43217.385879629626</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E31">
+        <v>633.95000000000005</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32">
+        <v>847.45</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43217.385833333334</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E32">
+        <v>874.9</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>27.449999999999932</v>
       </c>
     </row>
   </sheetData>
@@ -5299,15 +6075,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -5330,33 +6111,182 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="B2">
-        <v>37.5</v>
+        <v>284.7</v>
       </c>
       <c r="C2" s="1">
-        <v>43216.130127314813</v>
+        <v>43217.048622685186</v>
       </c>
       <c r="D2" s="4">
-        <v>0.1388888888888889</v>
+        <v>9.375E-2</v>
       </c>
       <c r="E2">
-        <v>37.25</v>
+        <v>283.7</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <f t="shared" ref="F2:F7" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2" si="1">SUM(B2-E2)</f>
-        <v>0.25</v>
+        <f t="shared" ref="G2:G7" si="1">SUM(B2-E2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43217.496111111112</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E3">
+        <v>15.95</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1046.2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43217.485879629632</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E4">
+        <v>1040</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>1361.85</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43217.427222222221</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E5">
+        <v>1351</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>10.849999999999909</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>794.7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43217.423576388886</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E6">
+        <v>798.9</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-4.1999999999999318</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>230.05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43217.403240740743</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E7">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G4:G27)</f>
+        <v>84.100000000000023</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Buy 17th April" sheetId="6" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Sell 26th April" sheetId="16" r:id="rId16"/>
     <sheet name="Buy 27th April" sheetId="17" r:id="rId17"/>
     <sheet name="Sell 27th April" sheetId="18" r:id="rId18"/>
+    <sheet name="Buy 30th Apri" sheetId="19" r:id="rId19"/>
+    <sheet name="Sell 30th April" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="85">
   <si>
     <t>SBI</t>
   </si>
@@ -332,12 +334,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,7 +613,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5238,8 +5241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6078,7 +6081,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6283,6 +6286,1024 @@
         <f>SUM(G4:G27)</f>
         <v>84.100000000000023</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>435.4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43220.130416666667</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E2">
+        <v>436.5</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F39" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G39" si="1">SUM(E2-B2)</f>
+        <v>1.1000000000000227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>423</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43220.114629629628</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E3">
+        <v>428</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>1128.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43220.09747685185</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E4">
+        <v>1131</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43220.081921296296</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.9548611111111112</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-66.14513888888888</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F39,"PASS")</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>267.2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43220.052118055559</v>
+      </c>
+      <c r="D6" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E6">
+        <v>265.14999999999998</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>-2.0500000000000114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F39,"FAIL")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>1165.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43220.537280092591</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6.25E-2</v>
+      </c>
+      <c r="E7">
+        <v>1170</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>1228.5999999999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43220.531400462962</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E8">
+        <v>1250</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>21.400000000000091</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G2:G37)</f>
+        <v>106.05486111111036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>342</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43220.51021990741</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E9">
+        <v>344.45</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.4499999999999886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10">
+        <v>639.35</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43220.489502314813</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.12152777777777778</v>
+      </c>
+      <c r="E10">
+        <v>646.65</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>7.2999999999999545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11">
+        <v>814.8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43220.485891203702</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E11">
+        <v>811.35</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>-3.4499999999999318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>251.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43220.472002314818</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E12">
+        <v>252</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.80000000000001137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>875.8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43220.471967592595</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="E13">
+        <v>869.35</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>-6.4499999999999318</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>664.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43220.469699074078</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.6388888888888895E-2</v>
+      </c>
+      <c r="E14">
+        <v>676.1</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>11.700000000000045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>624.4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43220.469664351855</v>
+      </c>
+      <c r="D15" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E15">
+        <v>644.25</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>19.850000000000023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16">
+        <v>859.6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43220.469571759262</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E16">
+        <v>866.4</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>6.7999999999999545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43220.468784722223</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E17">
+        <v>128.6</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.29999999999998295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>446.95</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43220.462627314817</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E18">
+        <v>449.4</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.4499999999999886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>306.85000000000002</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43220.458078703705</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E19">
+        <v>304.5</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-2.3500000000000227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>885</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43220.437650462962</v>
+      </c>
+      <c r="D20" s="4">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E20">
+        <v>887.75</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>1121.9000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43220.431261574071</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E21">
+        <v>1125.5</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>3.5999999999999091</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>640.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43220.431145833332</v>
+      </c>
+      <c r="D22" s="4">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E22">
+        <v>658</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>95.75</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43220.427754629629</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E23">
+        <v>96.3</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0.54999999999999716</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>531.35</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43220.427002314813</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E24">
+        <v>532</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.64999999999997726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>295.75</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43220.424513888887</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E25">
+        <v>302</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1262.7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43220.395810185182</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E26">
+        <v>1264</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>626</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43220.395578703705</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E27">
+        <v>657</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1185</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43220.389537037037</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E28">
+        <v>1160</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>1082.1500000000001</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43220.389525462961</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E29">
+        <v>1095</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>12.849999999999909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>94.25</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43220.389409722222</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E30">
+        <v>95.4</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000057</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31">
+        <v>762.1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43220.389293981483</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="E31">
+        <v>765</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>2.8999999999999773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32">
+        <v>116.65</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43220.389189814814</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E32">
+        <v>117.4</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>290.89999999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43220.388715277775</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E33">
+        <v>285.60000000000002</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>-5.2999999999999545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>247.5</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43220.388611111113</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E34">
+        <v>249.6</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999943</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>25574.15</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43220.387280092589</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E35">
+        <v>25610</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>35.849999999998545</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36">
+        <v>10745.3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43220.387280092589</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E36">
+        <v>10754</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>8.7000000000007276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37">
+        <v>144.65</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43220.385833333334</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="E37">
+        <v>147.69999999999999</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>3.0499999999999829</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38">
+        <v>980.35</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43220.385821759257</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E38">
+        <v>984</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>3.6499999999999773</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>367.9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43220.385706018518</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E39">
+        <v>369.6</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6484,6 +7505,423 @@
       <c r="C19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>1353.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43220.073067129626</v>
+      </c>
+      <c r="D2" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E2">
+        <v>1350</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F15" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G15" si="1">SUM(B2-E2)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>318.89999999999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43220.458483796298</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E3">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>15.3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43220.458368055559</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E4">
+        <v>15.2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.10000000000000142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>186.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43220.427881944444</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E5">
+        <v>154.35</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>32.550000000000011</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6">
+        <v>64.45</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43220.424513888887</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E6">
+        <v>63.85</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000142</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>416.85</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43220.424467592595</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E7">
+        <v>421.4</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>-4.5499999999999545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>195.25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43220.424432870372</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E8">
+        <v>194.7</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G4:G27)</f>
+        <v>43.900000000000162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>444.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43220.424432870372</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E9">
+        <v>442.45</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>429</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43220.399606481478</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E10">
+        <v>428</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>430.55</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43220.395925925928</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E11">
+        <v>417.45</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>13.100000000000023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>234.2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43220.395578703705</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E12">
+        <v>239.6</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>-5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>226.75</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43220.389293981483</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E13">
+        <v>225.35</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>285.25</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43220.388611111113</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E14">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.8500000000000227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>621</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43220.385833333334</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="E15">
+        <v>620.54999999999995</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0.45000000000004547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="C16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Buy 17th April" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <sheet name="Sell 27th April" sheetId="18" r:id="rId18"/>
     <sheet name="Buy 30th Apri" sheetId="19" r:id="rId19"/>
     <sheet name="Sell 30th April" sheetId="20" r:id="rId20"/>
+    <sheet name="Buy 2nd May" sheetId="21" r:id="rId21"/>
+    <sheet name="Sell 2nd May" sheetId="22" r:id="rId22"/>
+    <sheet name="Buy 3rd May " sheetId="23" r:id="rId23"/>
+    <sheet name="Sell 3rd May" sheetId="24" r:id="rId24"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="85">
   <si>
     <t>SBI</t>
   </si>
@@ -4602,7 +4606,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="I5:J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4827,8 +4831,8 @@
         <v>72</v>
       </c>
       <c r="J8">
-        <f>SUM(G4:G27)</f>
-        <v>19.070000000000086</v>
+        <f>SUM(G2:G27)</f>
+        <v>18.220000000000063</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5242,7 +5246,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6081,7 +6085,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6283,8 +6287,8 @@
         <v>72</v>
       </c>
       <c r="J8">
-        <f>SUM(G4:G27)</f>
-        <v>84.100000000000023</v>
+        <f>SUM(G2:G27)</f>
+        <v>85.850000000000023</v>
       </c>
     </row>
   </sheetData>
@@ -6295,10 +6299,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6348,11 +6352,11 @@
         <v>436.5</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F39" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <f t="shared" ref="F2:F37" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
         <v>PASS</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G39" si="1">SUM(E2-B2)</f>
+        <f t="shared" ref="G2:G37" si="1">SUM(E2-B2)</f>
         <v>1.1000000000000227</v>
       </c>
     </row>
@@ -6434,8 +6438,8 @@
         <v>59</v>
       </c>
       <c r="J5">
-        <f>COUNTIF(F2:F39,"PASS")</f>
-        <v>31</v>
+        <f>COUNTIF(F2:F37,"PASS")</f>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6466,7 +6470,7 @@
         <v>60</v>
       </c>
       <c r="J6">
-        <f>COUNTIF(F2:F39,"FAIL")</f>
+        <f>COUNTIF(F2:F37,"FAIL")</f>
         <v>7</v>
       </c>
     </row>
@@ -6523,8 +6527,8 @@
         <v>72</v>
       </c>
       <c r="J8">
-        <f>SUM(G2:G37)</f>
-        <v>106.05486111111036</v>
+        <f>SUM(G2:G35)</f>
+        <v>61.504861111111083</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7179,19 +7183,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>25574.15</v>
+        <v>144.65</v>
       </c>
       <c r="C35" s="1">
-        <v>43220.387280092589</v>
+        <v>43220.385833333334</v>
       </c>
       <c r="D35" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.44097222222222227</v>
       </c>
       <c r="E35">
-        <v>25610</v>
+        <v>147.69999999999999</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -7199,24 +7203,24 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>35.849999999998545</v>
+        <v>3.0499999999999829</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="B36">
-        <v>10745.3</v>
+        <v>980.35</v>
       </c>
       <c r="C36" s="1">
-        <v>43220.387280092589</v>
+        <v>43220.385821759257</v>
       </c>
       <c r="D36" s="4">
-        <v>0.3923611111111111</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="E36">
-        <v>10754</v>
+        <v>984</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -7224,24 +7228,24 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>8.7000000000007276</v>
+        <v>3.6499999999999773</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>144.65</v>
+        <v>367.9</v>
       </c>
       <c r="C37" s="1">
-        <v>43220.385833333334</v>
+        <v>43220.385706018518</v>
       </c>
       <c r="D37" s="4">
-        <v>0.44097222222222227</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E37">
-        <v>147.69999999999999</v>
+        <v>369.6</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -7249,61 +7253,11 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>3.0499999999999829</v>
+        <v>1.7000000000000455</v>
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38">
-        <v>980.35</v>
-      </c>
-      <c r="C38" s="1">
-        <v>43220.385821759257</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E38">
-        <v>984</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
-        <v>3.6499999999999773</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39">
-        <v>367.9</v>
-      </c>
-      <c r="C39" s="1">
-        <v>43220.385706018518</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E39">
-        <v>369.6</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
-        <v>1.7000000000000455</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="C40" s="1"/>
+      <c r="C38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7515,8 +7469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7741,8 +7695,8 @@
         <v>72</v>
       </c>
       <c r="J8">
-        <f>SUM(G4:G27)</f>
-        <v>43.900000000000162</v>
+        <f>SUM(G1:G27)</f>
+        <v>53.200000000000117</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7925,6 +7879,1868 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="A1:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>195.65</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43222.088541666664</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E2">
+        <v>195.15</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F24" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>FAIL</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G24" si="1">SUM(E2-B2)</f>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>411.05</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43222.072766203702</v>
+      </c>
+      <c r="D3" s="4">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="E3">
+        <v>412.2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>642.6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43222.060069444444</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="E4">
+        <v>678.6</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1228.9000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43222.042094907411</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E5">
+        <v>1233</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999091</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>641.85</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43222.041979166665</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E6">
+        <v>642.4</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.54999999999995453</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>116.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43222.463287037041</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E7">
+        <v>118</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>774</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43222.44189814815</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>764.7</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-9.2999999999999545</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>125.89999999999952</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>281.55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43222.437743055554</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E9">
+        <v>285.75</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>4.1999999999999886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43222.427986111114</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E10">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>424.7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43222.416747685187</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E11">
+        <v>425.45</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12">
+        <v>1130.4000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43222.413425925923</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E12">
+        <v>1141.5999999999999</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>11.199999999999818</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>1274.6500000000001</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43222.406331018516</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13">
+        <v>1278.8</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>4.1499999999998636</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>457.8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43222.400000000001</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="E14">
+        <v>464</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6.1999999999999886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15">
+        <v>876.9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43222.396851851852</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E15">
+        <v>874</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-2.8999999999999773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>894</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43222.395798611113</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>910.35</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>16.350000000000023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>348.85</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43222.395682870374</v>
+      </c>
+      <c r="D17" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E17">
+        <v>335.95</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>-12.900000000000034</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18">
+        <v>1129.9000000000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43222.389351851853</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E18">
+        <v>1151.25</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>21.349999999999909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>523.70000000000005</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43222.388657407406</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E19">
+        <v>527.70000000000005</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>251.2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43222.388657407406</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E20">
+        <v>251.6</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>813.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43222.388657407406</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E21">
+        <v>817.4</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>4.3500000000000227</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>308.2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43222.38863425926</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.47152777777777777</v>
+      </c>
+      <c r="E22">
+        <v>303.2</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>376.7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43222.385879629626</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E23">
+        <v>382.6</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>5.9000000000000341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>865.2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43222.385648148149</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E24">
+        <v>897.45</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>32.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="I5:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>1100</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43222.141527777778</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E2">
+        <v>1089</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F24" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G24" si="1">SUM(B2-E2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>968.25</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43222.125081018516</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E3">
+        <v>973.25</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>245.05</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43222.118055555555</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E4">
+        <v>246</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-0.94999999999998863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43222.114548611113</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="E5">
+        <v>15.75</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.39999999999999858</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>425.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43222.093946759262</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="E6">
+        <v>416.25</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>9.25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <v>229.1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43222.051932870374</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E7">
+        <v>228.3</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.79999999999998295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43222.048587962963</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.13541666666666666</v>
+      </c>
+      <c r="E8">
+        <v>995</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>240.35000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>92.95</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43222.540949074071</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="E9">
+        <v>91.2</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>93.85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43222.536481481482</v>
+      </c>
+      <c r="D10" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E10">
+        <v>92.7</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999915</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>263.05</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43222.52107638889</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.10069444444444443</v>
+      </c>
+      <c r="E11">
+        <v>254.5</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>8.5500000000000114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>38.85</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43222.507395833331</v>
+      </c>
+      <c r="D12" s="4">
+        <v>8.6805555555555566E-2</v>
+      </c>
+      <c r="E12">
+        <v>37.25</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.6000000000000014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1350.8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43222.489664351851</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E13">
+        <v>1320.35</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>30.450000000000045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>1238</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43222.489548611113</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E14">
+        <v>1135</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>289.55</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43222.472083333334</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E15">
+        <v>283.39999999999998</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.1500000000000341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>303.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43222.471967592595</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E16">
+        <v>296.2</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>408.35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43222.468715277777</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E17">
+        <v>408</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.35000000000002274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>242.95</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43222.458194444444</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="E18">
+        <v>240.8</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.1499999999999773</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>226.15</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43222.431597222225</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E19">
+        <v>224.65</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>195.05</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43222.41064814815</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E20">
+        <v>192.5</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>2.5500000000000114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>63.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43222.410509259258</v>
+      </c>
+      <c r="D21">
+        <v>245</v>
+      </c>
+      <c r="E21">
+        <v>61</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>140.35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43222.403333333335</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E22">
+        <v>105</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>35.349999999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23">
+        <v>282.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43222.388657407406</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E23">
+        <v>275.60000000000002</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>6.8999999999999773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>281.39999999999998</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43222.38863425926</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E24">
+        <v>279.5</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>1.8999999999999773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>529.25</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43223.402488425927</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2">
+        <v>538.54999999999995</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F3" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G3" si="1">SUM(E2-B2)</f>
+        <v>9.2999999999999545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>1082.75</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43223.399942129632</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="E3">
+        <v>1086.9000000000001</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>4.1500000000000909</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>628</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43223.395729166667</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E2">
+        <v>615.45000000000005</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F18" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G18" si="1">SUM(B2-E2)</f>
+        <v>12.549999999999955</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>963.35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43223.395613425928</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E3">
+        <v>958.2</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>5.1499999999999773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>407.85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43223.395613425928</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E4">
+        <v>400.25</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>742.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43223.389537037037</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E5">
+        <v>728.1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>14.199999999999932</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1043</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43223.389537037037</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E6">
+        <v>1026</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>61.35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43223.38925925926</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000014</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8">
+        <v>1140.05</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43223.389178240737</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8">
+        <v>1140.4000000000001</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-0.35000000000013642</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>130.24999999999972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>192.45</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43223.389178240737</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E9">
+        <v>190.35</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>2.0999999999999943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>427.5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43223.389178240737</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E10">
+        <v>414</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>37.6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43223.389143518521</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E11">
+        <v>36.950000000000003</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.64999999999999858</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>238.95</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43223.388680555552</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E12">
+        <v>238.9</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>4.9999999999982947E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
+        <v>798</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43223.388599537036</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E13">
+        <v>785.25</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>143.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43223.38590277778</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E14">
+        <v>140.5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>807.75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43223.385787037034</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E15">
+        <v>790.1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>17.649999999999977</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>105.5</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43223.385787037034</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E16">
+        <v>96.1</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>9.4000000000000057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>91.3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43223.385787037034</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E17">
+        <v>90.55</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>637.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43223.385706018518</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E18">
+        <v>624.6</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Buy 17th April" sheetId="6" r:id="rId1"/>
@@ -31,6 +31,10 @@
     <sheet name="Sell 2nd May" sheetId="22" r:id="rId22"/>
     <sheet name="Buy 3rd May " sheetId="23" r:id="rId23"/>
     <sheet name="Sell 3rd May" sheetId="24" r:id="rId24"/>
+    <sheet name="Buy 7th May" sheetId="25" r:id="rId25"/>
+    <sheet name="Sell 7th May" sheetId="26" r:id="rId26"/>
+    <sheet name="Buy 8th May" sheetId="27" r:id="rId27"/>
+    <sheet name="Sell 9th May" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="85">
   <si>
     <t>SBI</t>
   </si>
@@ -7887,7 +7891,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="A1:G2"/>
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9167,7 +9171,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9258,8 +9262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9741,6 +9745,2763 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>66.650000000000006</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43227.071747685186</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E2">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F20" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G20" si="1">SUM(E2-B2)</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>93</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43227.071747685186</v>
+      </c>
+      <c r="D3" s="4">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="E3">
+        <v>93.15</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.15000000000000568</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>414.5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43227.062615740739</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="E4">
+        <v>416</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>94.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43227.046122685184</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E5">
+        <v>94.5</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>1103.7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43227.539872685185</v>
+      </c>
+      <c r="D6" s="4">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="E6">
+        <v>1106</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999545</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>262.35000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43227.510416666664</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E7">
+        <v>263.39999999999998</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.0499999999999545</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>876</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43227.510300925926</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E8">
+        <v>888.45</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>12.450000000000045</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>68.349999999999937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>966.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43227.510185185187</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E9">
+        <v>973.3</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>271.7</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43227.500115740739</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E10">
+        <v>268</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-3.6999999999999886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>530.95000000000005</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43227.485821759263</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E11">
+        <v>536.20000000000005</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>227.4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43227.47047453704</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E12">
+        <v>235</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>7.5999999999999943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>975.85</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43227.47042824074</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E13">
+        <v>981.5</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>5.6499999999999773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>336.55</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43227.42696759259</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E14">
+        <v>334</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>-2.5500000000000114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>235.5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43227.395601851851</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E15">
+        <v>239</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>756.1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43227.389409722222</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E16">
+        <v>761</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17">
+        <v>865.05</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43227.388645833336</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.3923611111111111</v>
+      </c>
+      <c r="E17">
+        <v>870</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4.9500000000000455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>243.6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43227.388645833336</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E18">
+        <v>248</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <v>285.14999999999998</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43227.388599537036</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E19">
+        <v>289.60000000000002</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>4.4500000000000455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20">
+        <v>865</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43227.38616898148</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E20">
+        <v>871.85</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>6.8500000000000227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>750</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43227.077719907407</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E2">
+        <v>749.6</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F27" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G27" si="1">SUM(B2-E2)</f>
+        <v>0.39999999999997726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>591</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43227.07303240741</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E3">
+        <v>589</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>861.35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43227.071469907409</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.9861111111111105E-2</v>
+      </c>
+      <c r="E4">
+        <v>857.5</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>3.8500000000000227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>1101.4000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43227.53125</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E5">
+        <v>1092</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>9.4000000000000909</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>1137.5999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43227.51053240741</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E6">
+        <v>1130.5</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>7.0999999999999091</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7">
+        <v>399.95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43227.499884259261</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E7">
+        <v>395.7</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>727</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43227.497210648151</v>
+      </c>
+      <c r="D8" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E8">
+        <v>736</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>-9</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>105.30000000000034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9">
+        <v>815</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43227.496979166666</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E9">
+        <v>806.45</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>8.5499999999999545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>319.85000000000002</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43227.489583333336</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E10">
+        <v>323.39999999999998</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-3.5499999999999545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1164.1500000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43227.479398148149</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E11">
+        <v>1151.0999999999999</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>13.050000000000182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>265.75</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43227.46503472222</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E12">
+        <v>265.35000000000002</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.39999999999997726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>513.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43227.445243055554</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E13">
+        <v>506</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14">
+        <v>235.9</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43227.437326388892</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E14">
+        <v>234.6</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>64.45</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43227.413761574076</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E15">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>-0.64999999999999147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>623.95000000000005</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43227.410358796296</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E16">
+        <v>622.65</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>405.95</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43227.406481481485</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.41319444444444442</v>
+      </c>
+      <c r="E17">
+        <v>401</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4.9499999999999886</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>411.7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43227.40625</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E18">
+        <v>411.05</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0.64999999999997726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19">
+        <v>968.75</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43227.403182870374</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E19">
+        <v>970</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-1.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>619</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43227.403067129628</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="E20">
+        <v>612.79999999999995</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>928.95</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43227.40253472222</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E21">
+        <v>921.05</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>7.9000000000000909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>998.9</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43227.399872685186</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E22">
+        <v>987.85</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>11.049999999999955</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>1007.65</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43227.399826388886</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E23">
+        <v>1014.3</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>-6.6499999999999773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24">
+        <v>612.54999999999995</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43227.39571759259</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E24">
+        <v>604.25</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>8.2999999999999545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25">
+        <v>516.5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43227.395601851851</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E25">
+        <v>506.75</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>783</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43227.388715277775</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E26">
+        <v>763.05</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>19.950000000000045</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>289.85000000000002</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43227.388645833336</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E27">
+        <v>291.3</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-1.4499999999999886</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="I5:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2">
+        <v>1185</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43228.1253125</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.12847222222222224</v>
+      </c>
+      <c r="E2">
+        <v>1188</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F25" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G25" si="1">SUM(E2-B2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3">
+        <v>1122.3499999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43228.088171296295</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E3">
+        <v>1132.75</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>10.400000000000091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>881.85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43228.520914351851</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="E4">
+        <v>886.25</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>4.3999999999999773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>422</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43228.506782407407</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="E5">
+        <v>425.35</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>3.3500000000000227</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>93.9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43228.506689814814</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E6">
+        <v>95.65</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>443.65</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43228.506574074076</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E7">
+        <v>444.85</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>237.1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43228.499965277777</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.125</v>
+      </c>
+      <c r="E8">
+        <v>240.3</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000171</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>115.35000000000019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>217.15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43228.497291666667</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E9">
+        <v>215</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>-2.1500000000000057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>606.4</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43228.489432870374</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>608.29999999999995</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1.8999999999999773</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>417.75</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43228.479247685187</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="E11">
+        <v>424.2</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>6.4499999999999886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12">
+        <v>308.7</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43228.45113425926</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E12">
+        <v>314.35000000000002</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>5.6500000000000341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>980.5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43228.437465277777</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="E13">
+        <v>981.2</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0.70000000000004547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>767.05</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43228.421041666668</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E14">
+        <v>792</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>24.950000000000045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>298.85000000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43228.416388888887</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>306</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>7.1499999999999773</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>67.8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43228.413611111115</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E16">
+        <v>69</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>543</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43228.40252314815</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E17">
+        <v>547</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>631.1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43228.395682870374</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E18">
+        <v>626</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>-5.1000000000000227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>1048.3499999999999</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43228.389421296299</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E19">
+        <v>1057</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>8.6500000000000909</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>198</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43228.389328703706</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20">
+        <v>202</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21">
+        <v>1028.4000000000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43228.389328703706</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="E21">
+        <v>1046</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>17.599999999999909</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22">
+        <v>113.5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43228.389305555553</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E22">
+        <v>114.1</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>247.35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43228.388611111113</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E23">
+        <v>252</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>144</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43228.385833333334</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E24">
+        <v>149.35</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>5.3499999999999943</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>93.55</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43228.385833333334</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E25">
+        <v>96</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>2.4500000000000028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>369.45</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43228.136782407404</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E2">
+        <v>369.2</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F32" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G32" si="1">SUM(B2-E2)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>406.85</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43228.11478009259</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E3">
+        <v>406.35</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>267.7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43228.104120370372</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E4">
+        <v>267.2</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5">
+        <v>590.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43228.093599537038</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E5">
+        <v>591.25</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>-0.75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>319.5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43228.042094907411</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="E6">
+        <v>318.85000000000002</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>123.4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43228.041979166665</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E7">
+        <v>122.85</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.55000000000001137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>864.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43228.04173611111</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.5972222222222224E-2</v>
+      </c>
+      <c r="E8">
+        <v>861.35</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>3.3500000000000227</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>25.000000000000028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>621.35</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43228.540601851855</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E9">
+        <v>620.35</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>776.85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43228.51363425926</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E10">
+        <v>772.55</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>4.3000000000000682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1171</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43228.500196759262</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="E11">
+        <v>1155</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>15.35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43228.489548611113</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E12">
+        <v>15.1</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>516</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43228.479131944441</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E13">
+        <v>511.35</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>4.6499999999999773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>92.7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43228.474282407406</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.11458333333333333</v>
+      </c>
+      <c r="E14">
+        <v>92.45</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>61.75</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43228.474143518521</v>
+      </c>
+      <c r="D15" s="4">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="E15">
+        <v>60.6</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.1499999999999986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>920</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43228.471944444442</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="E16">
+        <v>917.35</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>2.6499999999999773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17">
+        <v>513.65</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43228.470555555556</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.11805555555555557</v>
+      </c>
+      <c r="E17">
+        <v>508.35</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>5.2999999999999545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>263.85000000000002</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43228.468831018516</v>
+      </c>
+      <c r="D18" s="4">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="E18">
+        <v>261.64999999999998</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000455</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>399</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43228.468599537038</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>400</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>142.4</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43228.456203703703</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E20">
+        <v>142.1</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>258.55</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43228.447997685187</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E21">
+        <v>257</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1.5500000000000114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>1091.8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43228.421041666668</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E22">
+        <v>1086</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>5.7999999999999545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23">
+        <v>625.25</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43228.410624999997</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.43402777777777773</v>
+      </c>
+      <c r="E23">
+        <v>623</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43228.410601851851</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E24">
+        <v>36.35</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.69999999999999574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>740.1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43228.403194444443</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.4375</v>
+      </c>
+      <c r="E25">
+        <v>737</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>3.1000000000000227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>1089.8</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43228.402986111112</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E26">
+        <v>1098.95</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>-9.1500000000000909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27">
+        <v>804.45</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43228.402962962966</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E27">
+        <v>825.8</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>-21.349999999999909</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>334.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43228.395567129628</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E28">
+        <v>333.25</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29">
+        <v>284.3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43228.395555555559</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E29">
+        <v>283</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30">
+        <v>1142</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43228.389328703706</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E30">
+        <v>1125</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31">
+        <v>221.05</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43228.38921296296</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="E31">
+        <v>219.35</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>235.15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43228.38863425926</v>
+      </c>
+      <c r="D32" s="4">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E32">
+        <v>230</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5.1500000000000057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="23" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="Buy 17th April" sheetId="6" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <sheet name="Buy 7th May" sheetId="25" r:id="rId25"/>
     <sheet name="Sell 7th May" sheetId="26" r:id="rId26"/>
     <sheet name="Buy 8th May" sheetId="27" r:id="rId27"/>
-    <sheet name="Sell 9th May" sheetId="28" r:id="rId28"/>
+    <sheet name="Sell 8th May" sheetId="28" r:id="rId28"/>
+    <sheet name="Buy 9th May" sheetId="29" r:id="rId29"/>
+    <sheet name="Sell 9th May" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="85">
   <si>
     <t>SBI</t>
   </si>
@@ -621,7 +623,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10291,7 +10293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -11005,8 +11007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="I5:J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11671,7 +11673,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:J8"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12498,6 +12500,595 @@
       <c r="G32">
         <f t="shared" si="1"/>
         <v>5.1500000000000057</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>306.39999999999998</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43229.131828703707</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="E2">
+        <v>306.7</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F22" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G22" si="1">SUM(E2-B2)</f>
+        <v>0.30000000000001137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>212.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43229.114120370374</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E3">
+        <v>215.95</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>3.6499999999999773</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>982</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43229.083344907405</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E4">
+        <v>976.4</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-5.6000000000000227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>248.3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43229.08321759259</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E5">
+        <v>248.7</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F27,"PASS")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>417.1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43229.531261574077</v>
+      </c>
+      <c r="D6" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E6">
+        <v>445.15</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>28.049999999999955</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F27,"FAIL")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>62.05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43229.528587962966</v>
+      </c>
+      <c r="D7" s="4">
+        <v>9.375E-2</v>
+      </c>
+      <c r="E7">
+        <v>62.75</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.70000000000000284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>773.25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43229.517152777778</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="E8">
+        <v>778.65</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>5.3999999999999773</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G27)</f>
+        <v>92.999999999999929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>308.89999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43229.485902777778</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.52430555555555558</v>
+      </c>
+      <c r="E9">
+        <v>309</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.10000000000002274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>242.75</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43229.468645833331</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E10">
+        <v>240.3</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>-2.4499999999999886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>1200.7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43229.458460648151</v>
+      </c>
+      <c r="D11" s="4">
+        <v>5.2083333333333336E-2</v>
+      </c>
+      <c r="E11">
+        <v>1202</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999545</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>853.15</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43229.456134259257</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E12">
+        <v>864</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>10.850000000000023</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>403.25</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43229.447812500002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E13">
+        <v>410.35</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7.1000000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>338.4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43229.447812500002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E14">
+        <v>347.7</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>198.8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43229.410671296297</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="E15">
+        <v>201.5</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>2.6999999999999886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>94.25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43229.403240740743</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="E16">
+        <v>93.5</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>69.349999999999994</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43229.403124999997</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E17">
+        <v>70.75</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.4000000000000057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>876.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43229.402916666666</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E18">
+        <v>891.6</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>14.700000000000045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>541.85</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43229.402453703704</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>548.1</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>326.64999999999998</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43229.395844907405</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>327.95</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.3000000000000114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <v>883.5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43229.395729166667</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E21">
+        <v>892</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>1038.7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43229.389374999999</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E22">
+        <v>1038.5</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>-0.20000000000004547</v>
       </c>
     </row>
   </sheetData>
@@ -12744,6 +13335,834 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>369.45</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43228.136782407404</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="E2">
+        <v>369.2</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F42" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G42" si="1">SUM(B2-E2)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3">
+        <v>1138.05</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43229.120393518519</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>1138.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>625.35</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43229.078032407408</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>625.35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>924.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43229.069444444445</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>924.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>877.9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43229.062511574077</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>877.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>92.95</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43229.054745370369</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>92.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1028.55</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43229.538101851853</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1028.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>284.7</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43229.534722222219</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>284.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>1112</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43229.520960648151</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>366.5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>43229.497013888889</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>366.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>1098.45</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43229.494467592594</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1098.45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>246.6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43229.478935185187</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>246.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>430.05</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43229.474097222221</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>430.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43229.470138888886</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>143.80000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>123.2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43229.468761574077</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>123.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>417.35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43229.463310185187</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>417.35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>92.9</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43229.463217592594</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>92.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>261.5</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43229.458460648151</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>261.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20">
+        <v>756.6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43229.441921296297</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>756.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>1166.05</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43229.437743055554</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>1166.05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>15.15</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43229.437627314815</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>15.15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23">
+        <v>406.35</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43229.42732638889</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>406.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24">
+        <v>513.45000000000005</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43229.427094907405</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>513.45000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="C25" s="1">
+        <v>43229.416678240741</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>261.39999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <v>775.2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43229.416342592594</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>775.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>37.5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43229.41064814815</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28">
+        <v>229.5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43229.402569444443</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43229.402546296296</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>267.89999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>618.20000000000005</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43229.395729166667</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>618.20000000000005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31">
+        <v>399.95</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43229.395613425928</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>399.95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>215.95</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43229.389374999999</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>215.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>112.2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43229.389236111114</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>112.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>60.7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43229.389120370368</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>60.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35">
+        <v>861.3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43229.388657407406</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>861.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>293.8</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43229.388657407406</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>293.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37">
+        <v>973.5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43229.385787037034</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>973.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1090.3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43229.385787037034</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>1090.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>618.15</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43229.385787037034</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>618.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>734.15</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43229.385763888888</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>734.15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>193.5</v>
+      </c>
+      <c r="C41" s="1">
+        <v>43229.385763888888</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>193.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>503.65</v>
+      </c>
+      <c r="C42" s="1">
+        <v>43229.385763888888</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>503.65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Signals.xlsx
+++ b/Signals.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="23" activeTab="28"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="24" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Buy 17th April" sheetId="6" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="Sell 8th May" sheetId="28" r:id="rId28"/>
     <sheet name="Buy 9th May" sheetId="29" r:id="rId29"/>
     <sheet name="Sell 9th May" sheetId="30" r:id="rId30"/>
+    <sheet name="Sheet3" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1159" uniqueCount="86">
   <si>
     <t>SBI</t>
   </si>
@@ -304,12 +305,15 @@
   <si>
     <t>Jubilant Life Sciences</t>
   </si>
+  <si>
+    <t>   </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,8 +321,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,8 +342,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -340,17 +357,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11673,7 +11714,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+      <selection activeCell="I5" sqref="I5:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12511,7 +12552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
@@ -13340,19 +13381,20 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>48</v>
       </c>
@@ -13375,192 +13417,267 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>1138.05</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43229.120393518519</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E2">
+        <v>1137.45</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F41" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
+        <v>PASS</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:G41" si="1">SUM(B2-E2)</f>
+        <v>0.59999999999990905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>625.35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43229.078032407408</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E3">
+        <v>625.15</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0.20000000000004547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>924.9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43229.069444444445</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E4">
+        <v>927.5</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>FAIL</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>-2.6000000000000227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>877.9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43229.062511574077</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E5">
+        <v>876.8</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(F2:F41,"PASS")</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>92.95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43229.054745370369</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E6">
+        <v>91.9</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(F2:F41,"FAIL")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>1028.55</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43229.538101851853</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E7">
+        <v>1018.05</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>284.7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43229.534722222219</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E8">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8">
+        <f>SUM(G1:G41)</f>
+        <v>37.249999999999893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1112</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43229.520960648151</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E9">
+        <v>1107.25</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>369.45</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43228.136782407404</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="E2">
-        <v>369.2</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F42" si="0">IF(G2&gt;0, "PASS", "FAIL")</f>
-        <v>PASS</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G42" si="1">SUM(B2-E2)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3">
-        <v>1138.05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43229.120393518519</v>
-      </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="1"/>
-        <v>1138.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>625.35</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43229.078032407408</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>625.35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>924.9</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43229.069444444445</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>924.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>877.9</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43229.062511574077</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>877.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>92.95</v>
-      </c>
-      <c r="C7" s="1">
-        <v>43229.054745370369</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>92.95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>1028.55</v>
-      </c>
-      <c r="C8" s="1">
-        <v>43229.538101851853</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>1028.55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9">
-        <v>284.7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>43229.534722222219</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="1"/>
-        <v>284.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
       <c r="B10">
-        <v>1112</v>
+        <v>366.5</v>
       </c>
       <c r="C10" s="1">
-        <v>43229.520960648151</v>
+        <v>43229.497013888889</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E10">
+        <v>368.55</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-2.0500000000000114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="B11">
-        <v>366.5</v>
+        <v>1098.45</v>
       </c>
       <c r="C11" s="1">
-        <v>43229.497013888889</v>
+        <v>43229.494467592594</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E11">
+        <v>1090.25</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -13568,37 +13685,49 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>366.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>8.2000000000000455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="B12">
-        <v>1098.45</v>
+        <v>246.6</v>
       </c>
       <c r="C12" s="1">
-        <v>43229.494467592594</v>
+        <v>43229.478935185187</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E12">
+        <v>248</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>1098.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-1.4000000000000057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B13">
-        <v>246.6</v>
+        <v>430.05</v>
       </c>
       <c r="C13" s="1">
-        <v>43229.478935185187</v>
+        <v>43229.474097222221</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E13">
+        <v>426.3</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -13606,37 +13735,49 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>246.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>430.05</v>
+        <v>143.80000000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>43229.474097222221</v>
+        <v>43229.470138888886</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E14">
+        <v>144.30000000000001</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>430.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>143.80000000000001</v>
+        <v>123.2</v>
       </c>
       <c r="C15" s="1">
-        <v>43229.470138888886</v>
+        <v>43229.468761574077</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E15">
+        <v>123.1</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -13644,18 +13785,24 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>143.80000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.10000000000000853</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>123.2</v>
+        <v>417.35</v>
       </c>
       <c r="C16" s="1">
-        <v>43229.468761574077</v>
+        <v>43229.463310185187</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E16">
+        <v>414.2</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -13663,37 +13810,49 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>123.2</v>
+        <v>3.1500000000000341</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>417.35</v>
+        <v>92.9</v>
       </c>
       <c r="C17" s="1">
-        <v>43229.463310185187</v>
+        <v>43229.463217592594</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E17">
+        <v>93</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>417.35</v>
+        <v>-9.9999999999994316E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>92.9</v>
+        <v>261.5</v>
       </c>
       <c r="C18" s="1">
-        <v>43229.463217592594</v>
+        <v>43229.458460648151</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E18">
+        <v>258.89999999999998</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -13701,37 +13860,49 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>92.9</v>
+        <v>2.6000000000000227</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>261.5</v>
+        <v>756.6</v>
       </c>
       <c r="C19" s="1">
-        <v>43229.458460648151</v>
+        <v>43229.441921296297</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E19">
+        <v>775.25</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>261.5</v>
+        <v>-18.649999999999977</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>756.6</v>
+        <v>1166.05</v>
       </c>
       <c r="C20" s="1">
-        <v>43229.441921296297</v>
+        <v>43229.437743055554</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E20">
+        <v>1145.3</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -13739,18 +13910,24 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>756.6</v>
+        <v>20.75</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>1166.05</v>
+        <v>15.15</v>
       </c>
       <c r="C21" s="1">
-        <v>43229.437743055554</v>
+        <v>43229.437627314815</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E21">
+        <v>15.05</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -13758,37 +13935,49 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>1166.05</v>
+        <v>9.9999999999999645E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>406.35</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43229.42732638889</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E22">
+        <v>405.35</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>PASS</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="B22">
-        <v>15.15</v>
-      </c>
-      <c r="C22" s="1">
-        <v>43229.437627314815</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>15.15</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>406.35</v>
+        <v>513.45000000000005</v>
       </c>
       <c r="C23" s="1">
-        <v>43229.42732638889</v>
+        <v>43229.427094907405</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E23">
+        <v>510</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -13796,18 +13985,24 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>406.35</v>
+        <v>3.4500000000000455</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B24">
-        <v>513.45000000000005</v>
+        <v>261.39999999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>43229.427094907405</v>
+        <v>43229.416678240741</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E24">
+        <v>258.5</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -13815,18 +14010,24 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>513.45000000000005</v>
+        <v>2.8999999999999773</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>261.39999999999998</v>
+        <v>775.2</v>
       </c>
       <c r="C25" s="1">
-        <v>43229.416678240741</v>
+        <v>43229.416342592594</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E25">
+        <v>762.15</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -13834,18 +14035,24 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>261.39999999999998</v>
+        <v>13.050000000000068</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>775.2</v>
+        <v>37.5</v>
       </c>
       <c r="C26" s="1">
-        <v>43229.416342592594</v>
+        <v>43229.41064814815</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E26">
+        <v>37.200000000000003</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -13853,18 +14060,24 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>775.2</v>
+        <v>0.29999999999999716</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="B27">
-        <v>37.5</v>
+        <v>229.5</v>
       </c>
       <c r="C27" s="1">
-        <v>43229.41064814815</v>
+        <v>43229.402569444443</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E27">
+        <v>224.65</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -13872,18 +14085,24 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>37.5</v>
+        <v>4.8499999999999943</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>229.5</v>
+        <v>267.89999999999998</v>
       </c>
       <c r="C28" s="1">
-        <v>43229.402569444443</v>
+        <v>43229.402546296296</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E28">
+        <v>267.35000000000002</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -13891,18 +14110,24 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>229.5</v>
+        <v>0.54999999999995453</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="B29">
-        <v>267.89999999999998</v>
+        <v>618.20000000000005</v>
       </c>
       <c r="C29" s="1">
-        <v>43229.402546296296</v>
+        <v>43229.395729166667</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E29">
+        <v>613.04999999999995</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -13910,94 +14135,124 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>267.89999999999998</v>
+        <v>5.1500000000000909</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30">
-        <v>618.20000000000005</v>
+        <v>399.95</v>
       </c>
       <c r="C30" s="1">
-        <v>43229.395729166667</v>
+        <v>43229.395613425928</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E30">
+        <v>406</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>618.20000000000005</v>
+        <v>-6.0500000000000114</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B31">
-        <v>399.95</v>
+        <v>215.95</v>
       </c>
       <c r="C31" s="1">
-        <v>43229.395613425928</v>
+        <v>43229.389374999999</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E31">
+        <v>217.45</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>399.95</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>215.95</v>
+        <v>112.2</v>
       </c>
       <c r="C32" s="1">
-        <v>43229.389374999999</v>
+        <v>43229.389236111114</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E32">
+        <v>112.2</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>215.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B33">
-        <v>112.2</v>
+        <v>60.7</v>
       </c>
       <c r="C33" s="1">
-        <v>43229.389236111114</v>
+        <v>43229.389120370368</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E33">
+        <v>62.35</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>112.2</v>
+        <v>-1.6499999999999986</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B34">
-        <v>60.7</v>
+        <v>861.3</v>
       </c>
       <c r="C34" s="1">
-        <v>43229.389120370368</v>
+        <v>43229.388657407406</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E34">
+        <v>860.1</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -14005,37 +14260,49 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>60.7</v>
+        <v>1.1999999999999318</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>861.3</v>
+        <v>293.8</v>
       </c>
       <c r="C35" s="1">
         <v>43229.388657407406</v>
       </c>
+      <c r="D35" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E35">
+        <v>305.25</v>
+      </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>861.3</v>
+        <v>-11.449999999999989</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="B36">
-        <v>293.8</v>
+        <v>973.5</v>
       </c>
       <c r="C36" s="1">
-        <v>43229.388657407406</v>
+        <v>43229.385787037034</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E36">
+        <v>966.1</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -14043,56 +14310,74 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>293.8</v>
+        <v>7.3999999999999773</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B37">
-        <v>973.5</v>
+        <v>1090.3</v>
       </c>
       <c r="C37" s="1">
         <v>43229.385787037034</v>
       </c>
+      <c r="D37" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E37">
+        <v>1093.4000000000001</v>
+      </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>973.5</v>
+        <v>-3.1000000000001364</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>1090.3</v>
+        <v>618.15</v>
       </c>
       <c r="C38" s="1">
         <v>43229.385787037034</v>
       </c>
+      <c r="D38" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E38">
+        <v>625.70000000000005</v>
+      </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>1090.3</v>
+        <v>-7.5500000000000682</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>618.15</v>
+        <v>734.15</v>
       </c>
       <c r="C39" s="1">
-        <v>43229.385787037034</v>
+        <v>43229.385763888888</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E39">
+        <v>727.5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -14100,69 +14385,877 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>618.15</v>
+        <v>6.6499999999999773</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>734.15</v>
+        <v>193.5</v>
       </c>
       <c r="C40" s="1">
         <v>43229.385763888888</v>
       </c>
+      <c r="D40" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E40">
+        <v>208.8</v>
+      </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
-        <v>PASS</v>
+        <v>FAIL</v>
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>734.15</v>
+        <v>-15.300000000000011</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>193.5</v>
+        <v>503.65</v>
       </c>
       <c r="C41" s="1">
         <v>43229.385763888888</v>
       </c>
+      <c r="D41" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E41">
+        <v>499.4</v>
+      </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
         <v>PASS</v>
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>193.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42">
-        <v>503.65</v>
-      </c>
-      <c r="C42" s="1">
-        <v>43229.385763888888</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="0"/>
-        <v>PASS</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
-        <v>503.65</v>
+        <v>4.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30">
+      <c r="A1" s="6">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="8">
+        <v>1138.05</v>
+      </c>
+      <c r="D1" s="8">
+        <v>1137.45</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="7">
+        <v>43229.120393518519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6">
+        <v>625.35</v>
+      </c>
+      <c r="D2" s="6">
+        <v>625.15</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43229.078032407408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6">
+        <v>924.9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>927.5</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43229.069444444445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="6">
+        <v>877.9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>876.8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43229.062511574077</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
+      <c r="A5" s="6">
+        <v>5</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6">
+        <v>92.95</v>
+      </c>
+      <c r="D5" s="6">
+        <v>91.9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43229.054745370369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1028.55</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1018.05</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43229.538101851853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>7</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6">
+        <v>284.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>283.14999999999998</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43229.534722222219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75">
+      <c r="A8" s="6">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1112</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1107.25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43229.520960648151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30">
+      <c r="A9" s="6">
+        <v>9</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="6">
+        <v>366.5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>368.55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43229.497013888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45">
+      <c r="A10" s="6">
+        <v>10</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1098.45</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1090.25</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43229.494467592594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6">
+        <v>11</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>246.6</v>
+      </c>
+      <c r="D11" s="6">
+        <v>248</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43229.478935185187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45">
+      <c r="A12" s="6">
+        <v>12</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="6">
+        <v>430.05</v>
+      </c>
+      <c r="D12" s="6">
+        <v>426.3</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="7">
+        <v>43229.474097222221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="6">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6">
+        <v>143.80000000000001</v>
+      </c>
+      <c r="D13" s="6">
+        <v>144.30000000000001</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7">
+        <v>43229.470138888886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="6">
+        <v>14</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6">
+        <v>123.2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>123.1</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7">
+        <v>43229.468761574077</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6">
+        <v>417.35</v>
+      </c>
+      <c r="D15" s="6">
+        <v>414.2</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="7">
+        <v>43229.463310185187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45">
+      <c r="A16" s="6">
+        <v>16</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="6">
+        <v>92.9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>93</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43229.463217592594</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="6">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>261.5</v>
+      </c>
+      <c r="D17" s="6">
+        <v>258.89999999999998</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="7">
+        <v>43229.458460648151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="6">
+        <v>18</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6">
+        <v>756.6</v>
+      </c>
+      <c r="D18" s="6">
+        <v>775.25</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="7">
+        <v>43229.441921296297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="30">
+      <c r="A19" s="6">
+        <v>19</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1166.05</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1145.3</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="7">
+        <v>43229.437743055554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>15.15</v>
+      </c>
+      <c r="D20" s="6">
+        <v>15.05</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="7">
+        <v>43229.437627314815</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45">
+      <c r="A21" s="6">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6">
+        <v>406.35</v>
+      </c>
+      <c r="D21" s="6">
+        <v>405.35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" s="7">
+        <v>43229.42732638889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="60">
+      <c r="A22" s="6">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="6">
+        <v>513.45000000000005</v>
+      </c>
+      <c r="D22" s="6">
+        <v>510</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="7">
+        <v>43229.427094907405</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="75">
+      <c r="A23" s="6">
+        <v>23</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6">
+        <v>261.39999999999998</v>
+      </c>
+      <c r="D23" s="6">
+        <v>258.5</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="7">
+        <v>43229.416678240741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6">
+        <v>24</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="6">
+        <v>775.2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>762.15</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="7">
+        <v>43229.416342592594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30">
+      <c r="A25" s="6">
+        <v>25</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="6">
+        <v>37.5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="7">
+        <v>43229.41064814815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30">
+      <c r="A26" s="6">
+        <v>26</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6">
+        <v>229.5</v>
+      </c>
+      <c r="D26" s="6">
+        <v>224.65</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="7">
+        <v>43229.402569444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="6">
+        <v>27</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="6">
+        <v>267.89999999999998</v>
+      </c>
+      <c r="D27" s="6">
+        <v>267.35000000000002</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="7">
+        <v>43229.402546296296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="45">
+      <c r="A28" s="6">
+        <v>28</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="6">
+        <v>618.20000000000005</v>
+      </c>
+      <c r="D28" s="6">
+        <v>613.04999999999995</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="7">
+        <v>43229.395729166667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="6">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="6">
+        <v>399.95</v>
+      </c>
+      <c r="D29" s="6">
+        <v>406</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="7">
+        <v>43229.395613425928</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30">
+      <c r="A30" s="6">
+        <v>30</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="6">
+        <v>215.95</v>
+      </c>
+      <c r="D30" s="6">
+        <v>217.45</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="7">
+        <v>43229.389374999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30">
+      <c r="A31" s="6">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="6">
+        <v>112.2</v>
+      </c>
+      <c r="D31" s="6">
+        <v>112.2</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="7">
+        <v>43229.389236111114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="45">
+      <c r="A32" s="6">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="6">
+        <v>60.7</v>
+      </c>
+      <c r="D32" s="6">
+        <v>62.35</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="7">
+        <v>43229.389120370368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="60">
+      <c r="A33" s="6">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="6">
+        <v>861.3</v>
+      </c>
+      <c r="D33" s="6">
+        <v>860.1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="7">
+        <v>43229.388657407406</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="60">
+      <c r="A34" s="6">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="6">
+        <v>293.8</v>
+      </c>
+      <c r="D34" s="6">
+        <v>305.25</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="7">
+        <v>43229.388657407406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="6">
+        <v>973.5</v>
+      </c>
+      <c r="D35" s="6">
+        <v>966.1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="7">
+        <v>43229.385787037034</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="45">
+      <c r="A36" s="6">
+        <v>36</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="8">
+        <v>1090.3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1093.4000000000001</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F36" s="7">
+        <v>43229.385787037034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="6">
+        <v>618.15</v>
+      </c>
+      <c r="D37" s="6">
+        <v>625.70000000000005</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="7">
+        <v>43229.385787037034</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
+      <c r="A38" s="6">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="6">
+        <v>734.15</v>
+      </c>
+      <c r="D38" s="6">
+        <v>727.5</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F38" s="7">
+        <v>43229.385763888888</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="6">
+        <v>39</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="6">
+        <v>193.5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>208.8</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="7">
+        <v>43229.385763888888</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="6">
+        <v>40</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="6">
+        <v>503.65</v>
+      </c>
+      <c r="D40" s="6">
+        <v>499.4</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="7">
+        <v>43229.385763888888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
